--- a/REGULAR/HRMO/GUTIERREZ, LYDIA CALANOG.xlsx
+++ b/REGULAR/HRMO/GUTIERREZ, LYDIA CALANOG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="386">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>12/01,07/2023</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2254,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A511" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K528" sqref="K528"/>
+      <selection pane="bottomLeft" activeCell="K520" sqref="K520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,7 +2419,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>194.96399999999994</v>
+        <v>199.21399999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="49">
@@ -2425,7 +2428,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>419.25</v>
+        <v>425.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="48" t="s">
@@ -13898,13 +13901,15 @@
       <c r="B528" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
@@ -13918,13 +13923,15 @@
         <v>45170</v>
       </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
@@ -13932,15 +13939,19 @@
       <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40"/>
+      <c r="A530" s="40">
+        <v>45200</v>
+      </c>
       <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
@@ -13948,31 +13959,45 @@
       <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40"/>
-      <c r="B531" s="20"/>
-      <c r="C531" s="13"/>
-      <c r="D531" s="39"/>
+      <c r="A531" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B531" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D531" s="39">
+        <v>2</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20"/>
+      <c r="K531" s="20" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40"/>
+      <c r="A532" s="40">
+        <v>45261</v>
+      </c>
       <c r="B532" s="20"/>
-      <c r="C532" s="13"/>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G532" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
